--- a/data/pca/factorExposure/factorExposure_2011-05-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-05-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +741,60 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.005187238041604625</v>
+        <v>0.01313458340721597</v>
       </c>
       <c r="C2">
-        <v>0.005973851173210211</v>
+        <v>-0.004248172094841158</v>
       </c>
       <c r="D2">
-        <v>0.04910154972443518</v>
+        <v>-0.02779917990428945</v>
       </c>
       <c r="E2">
-        <v>-0.005513076913677681</v>
+        <v>-0.01704639948848886</v>
       </c>
       <c r="F2">
-        <v>-0.01062318113065255</v>
+        <v>0.001159087350362519</v>
       </c>
       <c r="G2">
-        <v>0.03593500746536452</v>
+        <v>0.0137869466391954</v>
       </c>
       <c r="H2">
-        <v>-0.000368192399821087</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.02188584361275425</v>
+      </c>
+      <c r="I2">
+        <v>-0.03863166515888788</v>
+      </c>
+      <c r="J2">
+        <v>-0.0224097492159898</v>
+      </c>
+      <c r="K2">
+        <v>-0.03102735609476113</v>
+      </c>
+      <c r="L2">
+        <v>0.02171470383385976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +817,60 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.08707071945935001</v>
+        <v>0.1109066134662874</v>
       </c>
       <c r="C4">
-        <v>-0.04868844941223671</v>
+        <v>0.07298052584589615</v>
       </c>
       <c r="D4">
-        <v>0.02988290114182597</v>
+        <v>-0.02386007719646704</v>
       </c>
       <c r="E4">
-        <v>0.04036834993565777</v>
+        <v>-0.01891066131201185</v>
       </c>
       <c r="F4">
-        <v>-0.03192932717152738</v>
+        <v>0.1552816054015884</v>
       </c>
       <c r="G4">
-        <v>0.02639439558477087</v>
+        <v>-0.01217916568604899</v>
       </c>
       <c r="H4">
-        <v>0.01216467493719217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.01066354177053413</v>
+      </c>
+      <c r="I4">
+        <v>0.0224198692854319</v>
+      </c>
+      <c r="J4">
+        <v>0.02781526790734453</v>
+      </c>
+      <c r="K4">
+        <v>0.09786463282737874</v>
+      </c>
+      <c r="L4">
+        <v>0.02466622950897832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +893,440 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.1324034120050863</v>
+        <v>0.1344712832199983</v>
       </c>
       <c r="C6">
-        <v>-0.03918578840140825</v>
+        <v>0.05247756282446993</v>
       </c>
       <c r="D6">
-        <v>0.05055602744212366</v>
+        <v>-0.002816951569117755</v>
       </c>
       <c r="E6">
-        <v>0.06035189318022322</v>
+        <v>-0.008440046432435688</v>
       </c>
       <c r="F6">
-        <v>0.1064336169022172</v>
+        <v>-0.009411904210726289</v>
       </c>
       <c r="G6">
-        <v>-0.1006209612512132</v>
+        <v>-0.07071352044456268</v>
       </c>
       <c r="H6">
-        <v>-0.07106373376925802</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.06760198036811672</v>
+      </c>
+      <c r="I6">
+        <v>0.2730712157199304</v>
+      </c>
+      <c r="J6">
+        <v>0.3237207167005715</v>
+      </c>
+      <c r="K6">
+        <v>-0.06018856166260515</v>
+      </c>
+      <c r="L6">
+        <v>0.2026071507611421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.07917807882731347</v>
+        <v>0.07397630370858904</v>
       </c>
       <c r="C7">
-        <v>-0.04317176971341193</v>
+        <v>0.06089840057984192</v>
       </c>
       <c r="D7">
-        <v>0.03861594034342191</v>
+        <v>-0.02935228394432766</v>
       </c>
       <c r="E7">
-        <v>0.03949110854635556</v>
+        <v>-0.01828296022202873</v>
       </c>
       <c r="F7">
-        <v>0.04035684330116534</v>
+        <v>0.03318635376461614</v>
       </c>
       <c r="G7">
-        <v>0.00420177483892718</v>
+        <v>-0.005760472354459052</v>
       </c>
       <c r="H7">
-        <v>-0.01872363845899205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.01457952329223084</v>
+      </c>
+      <c r="I7">
+        <v>0.01160335811101271</v>
+      </c>
+      <c r="J7">
+        <v>-0.03954010516181614</v>
+      </c>
+      <c r="K7">
+        <v>0.1086909908340132</v>
+      </c>
+      <c r="L7">
+        <v>-0.03824641961442227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.03802632146420211</v>
+        <v>0.04316433135090279</v>
       </c>
       <c r="C8">
-        <v>-0.003226270702563961</v>
+        <v>0.01918362540968447</v>
       </c>
       <c r="D8">
-        <v>0.05561604876102107</v>
+        <v>-0.006101252386843134</v>
       </c>
       <c r="E8">
-        <v>0.06088241780518889</v>
+        <v>-0.01727007866782383</v>
       </c>
       <c r="F8">
-        <v>-0.04038721644394227</v>
+        <v>0.138967612038902</v>
       </c>
       <c r="G8">
-        <v>0.08531082805513496</v>
+        <v>0.01417785055740542</v>
       </c>
       <c r="H8">
-        <v>-0.08887809241299834</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.0519035997143517</v>
+      </c>
+      <c r="I8">
+        <v>0.07535765956872807</v>
+      </c>
+      <c r="J8">
+        <v>0.002262869648928712</v>
+      </c>
+      <c r="K8">
+        <v>0.08187956984402672</v>
+      </c>
+      <c r="L8">
+        <v>0.05400502948453348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.07954874932534753</v>
+        <v>0.08595989927885792</v>
       </c>
       <c r="C9">
-        <v>-0.04764413054891985</v>
+        <v>0.0639905586828708</v>
       </c>
       <c r="D9">
-        <v>0.03168296766119869</v>
+        <v>-0.02432089645658391</v>
       </c>
       <c r="E9">
-        <v>0.02918392418928258</v>
+        <v>-0.00224131114252343</v>
       </c>
       <c r="F9">
-        <v>-0.01885920739678982</v>
+        <v>0.1373038619140802</v>
       </c>
       <c r="G9">
-        <v>0.03476039516680234</v>
+        <v>-0.007435832878807449</v>
       </c>
       <c r="H9">
-        <v>-0.03377140868875398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.008568266221548548</v>
+      </c>
+      <c r="I9">
+        <v>0.02040384589788187</v>
+      </c>
+      <c r="J9">
+        <v>0.00503925276532055</v>
+      </c>
+      <c r="K9">
+        <v>0.06602057927517216</v>
+      </c>
+      <c r="L9">
+        <v>0.02852609476255787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.04474728748896901</v>
+        <v>0.10182251630295</v>
       </c>
       <c r="C10">
-        <v>0.1407019102334779</v>
+        <v>-0.1679756592289884</v>
       </c>
       <c r="D10">
-        <v>0.08127638675378648</v>
+        <v>-0.05297291450313311</v>
       </c>
       <c r="E10">
-        <v>0.02984173885688908</v>
+        <v>-0.03312450685794766</v>
       </c>
       <c r="F10">
-        <v>0.04405518503520651</v>
+        <v>-0.01077204627032292</v>
       </c>
       <c r="G10">
-        <v>-0.0007522553924116964</v>
+        <v>-0.009149279900743235</v>
       </c>
       <c r="H10">
-        <v>-0.002535218307077708</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.03335170912311441</v>
+      </c>
+      <c r="I10">
+        <v>0.005517425788762945</v>
+      </c>
+      <c r="J10">
+        <v>0.0224951180790673</v>
+      </c>
+      <c r="K10">
+        <v>-0.01622699581036087</v>
+      </c>
+      <c r="L10">
+        <v>-0.05177374338915691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.06913730602070312</v>
+        <v>0.07271668504312648</v>
       </c>
       <c r="C11">
-        <v>-0.06697687291109937</v>
+        <v>0.07070044949325595</v>
       </c>
       <c r="D11">
-        <v>0.004976555607809498</v>
+        <v>-0.007120171119389292</v>
       </c>
       <c r="E11">
-        <v>-0.008502590794476943</v>
+        <v>0.02368318605232268</v>
       </c>
       <c r="F11">
-        <v>-0.002652046073725252</v>
+        <v>0.1331497165979494</v>
       </c>
       <c r="G11">
-        <v>0.1207690634906384</v>
+        <v>0.01419975661376475</v>
       </c>
       <c r="H11">
-        <v>-0.0510496332193317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.06092775062498931</v>
+      </c>
+      <c r="I11">
+        <v>-0.03174160383448574</v>
+      </c>
+      <c r="J11">
+        <v>-0.08537909482467068</v>
+      </c>
+      <c r="K11">
+        <v>-0.02828682375975268</v>
+      </c>
+      <c r="L11">
+        <v>0.01898245070561011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.06226975487070543</v>
+        <v>0.06866488006008431</v>
       </c>
       <c r="C12">
-        <v>-0.03658765485818986</v>
+        <v>0.0637380127592479</v>
       </c>
       <c r="D12">
-        <v>-0.007901214780675693</v>
+        <v>-0.01362201316235249</v>
       </c>
       <c r="E12">
-        <v>0.03557078743251997</v>
+        <v>0.02136729792766685</v>
       </c>
       <c r="F12">
-        <v>0.001606253907141306</v>
+        <v>0.1398071221182023</v>
       </c>
       <c r="G12">
-        <v>0.1012857340462892</v>
+        <v>0.027020145453447</v>
       </c>
       <c r="H12">
-        <v>-0.07511733777283448</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.05714818895211071</v>
+      </c>
+      <c r="I12">
+        <v>0.01064265403838825</v>
+      </c>
+      <c r="J12">
+        <v>-0.08842208767513732</v>
+      </c>
+      <c r="K12">
+        <v>-0.005950111186525984</v>
+      </c>
+      <c r="L12">
+        <v>0.04715585283529473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.05497153171023453</v>
+        <v>0.04413228338708976</v>
       </c>
       <c r="C13">
-        <v>-0.002797742861025384</v>
+        <v>0.03032611774081398</v>
       </c>
       <c r="D13">
-        <v>0.001791674494150466</v>
+        <v>-0.01040537062991365</v>
       </c>
       <c r="E13">
-        <v>0.01209728315923619</v>
+        <v>-0.02267736380127234</v>
       </c>
       <c r="F13">
-        <v>-0.04701253139192276</v>
+        <v>0.04801051457300732</v>
       </c>
       <c r="G13">
-        <v>0.009085705831084976</v>
+        <v>-0.001636773497577956</v>
       </c>
       <c r="H13">
-        <v>-0.07069683905330972</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.01517839982133592</v>
+      </c>
+      <c r="I13">
+        <v>0.01127316110092599</v>
+      </c>
+      <c r="J13">
+        <v>-0.005087903197981616</v>
+      </c>
+      <c r="K13">
+        <v>0.04584276250752564</v>
+      </c>
+      <c r="L13">
+        <v>-0.01640624176316502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>0.05230154652509263</v>
+        <v>0.0382708875691915</v>
       </c>
       <c r="C14">
-        <v>-0.009461255107824772</v>
+        <v>0.02276357441133086</v>
       </c>
       <c r="D14">
-        <v>0.01686994805438811</v>
+        <v>-0.010511545905432</v>
       </c>
       <c r="E14">
-        <v>0.03273599044708632</v>
+        <v>0.01133406180116201</v>
       </c>
       <c r="F14">
-        <v>-0.002261630060649261</v>
+        <v>0.06299020684348</v>
       </c>
       <c r="G14">
-        <v>0.01275903997308322</v>
+        <v>0.006151686734428617</v>
       </c>
       <c r="H14">
-        <v>-0.08743790341216605</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.03124322868629726</v>
+      </c>
+      <c r="I14">
+        <v>0.003109894257291738</v>
+      </c>
+      <c r="J14">
+        <v>0.03194815535084249</v>
+      </c>
+      <c r="K14">
+        <v>0.1057067361269987</v>
+      </c>
+      <c r="L14">
+        <v>0.02827258362911197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.03647018607279802</v>
+        <v>0.02525245720097641</v>
       </c>
       <c r="C15">
-        <v>0.00817692911031908</v>
+        <v>0.01483451538559678</v>
       </c>
       <c r="D15">
-        <v>0.005533124846304104</v>
+        <v>0.005612180692601238</v>
       </c>
       <c r="E15">
-        <v>0.01767660566213601</v>
+        <v>-0.05037664884582591</v>
       </c>
       <c r="F15">
-        <v>-0.01826742883988209</v>
+        <v>0.008222623236235956</v>
       </c>
       <c r="G15">
-        <v>6.229374367601258e-05</v>
+        <v>-0.03256086050122128</v>
       </c>
       <c r="H15">
-        <v>-0.01688944897862114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.001049525613398984</v>
+      </c>
+      <c r="I15">
+        <v>-0.005049425936059095</v>
+      </c>
+      <c r="J15">
+        <v>0.05028214093060999</v>
+      </c>
+      <c r="K15">
+        <v>0.06515145424363471</v>
+      </c>
+      <c r="L15">
+        <v>-0.01706881376885034</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.06955358577063013</v>
+        <v>0.07790056496806548</v>
       </c>
       <c r="C16">
-        <v>-0.07308925097098787</v>
+        <v>0.07568349733550789</v>
       </c>
       <c r="D16">
-        <v>0.01419109396619968</v>
+        <v>-0.003427199401864043</v>
       </c>
       <c r="E16">
-        <v>0.02633521932429888</v>
+        <v>0.01840081272407933</v>
       </c>
       <c r="F16">
-        <v>-0.03247693682337426</v>
+        <v>0.1284108524105342</v>
       </c>
       <c r="G16">
-        <v>0.07997778020197398</v>
+        <v>0.02291696639853538</v>
       </c>
       <c r="H16">
-        <v>-0.05705139816584869</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.05422608471672472</v>
+      </c>
+      <c r="I16">
+        <v>-0.02804168084036061</v>
+      </c>
+      <c r="J16">
+        <v>-0.09826156433719631</v>
+      </c>
+      <c r="K16">
+        <v>0.001055936261830261</v>
+      </c>
+      <c r="L16">
+        <v>0.03812054208809322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1349,22 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1387,22 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1425,288 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>0.05016422248303429</v>
+        <v>0.04404760047778412</v>
       </c>
       <c r="C20">
-        <v>-0.03464198436265886</v>
+        <v>0.03134592904140941</v>
       </c>
       <c r="D20">
-        <v>0.007165242714609277</v>
+        <v>-0.01313522349986532</v>
       </c>
       <c r="E20">
-        <v>0.01327624546292599</v>
+        <v>-0.02496926828591893</v>
       </c>
       <c r="F20">
-        <v>-0.0110556565045365</v>
+        <v>0.06287283238942873</v>
       </c>
       <c r="G20">
-        <v>0.0329927968065801</v>
+        <v>0.02140806716409169</v>
       </c>
       <c r="H20">
-        <v>-0.05137185843640747</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.0006945514084088529</v>
+      </c>
+      <c r="I20">
+        <v>0.02711920226685395</v>
+      </c>
+      <c r="J20">
+        <v>0.007639910835629621</v>
+      </c>
+      <c r="K20">
+        <v>0.0750819266799191</v>
+      </c>
+      <c r="L20">
+        <v>0.009643769799804075</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.02276811349210541</v>
+        <v>0.02392209482448668</v>
       </c>
       <c r="C21">
-        <v>-0.03412893151767683</v>
+        <v>0.02188418495991706</v>
       </c>
       <c r="D21">
-        <v>-0.009618555492520621</v>
+        <v>-0.001853824729714336</v>
       </c>
       <c r="E21">
-        <v>0.05017806178029514</v>
+        <v>-0.005767480061545636</v>
       </c>
       <c r="F21">
-        <v>0.07550091064066211</v>
+        <v>0.06556902311499363</v>
       </c>
       <c r="G21">
-        <v>-0.01270683338733481</v>
+        <v>-0.0400144684241986</v>
       </c>
       <c r="H21">
-        <v>0.07193160104681362</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.09202054697970498</v>
+      </c>
+      <c r="I21">
+        <v>0.0568982965076039</v>
+      </c>
+      <c r="J21">
+        <v>0.05495263256530956</v>
+      </c>
+      <c r="K21">
+        <v>0.1012234247663691</v>
+      </c>
+      <c r="L21">
+        <v>-0.09051035703830522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>0.02649120440551191</v>
+        <v>0.04776652667029575</v>
       </c>
       <c r="C22">
-        <v>-0.04430154228189968</v>
+        <v>0.0346446579555871</v>
       </c>
       <c r="D22">
-        <v>-0.03764007831629674</v>
+        <v>0.09756508217862721</v>
       </c>
       <c r="E22">
-        <v>0.5172567171972972</v>
+        <v>-0.6511194084311842</v>
       </c>
       <c r="F22">
-        <v>-0.2543510535827589</v>
+        <v>-0.06873556685123411</v>
       </c>
       <c r="G22">
-        <v>-0.1732436162523263</v>
+        <v>0.139074306677694</v>
       </c>
       <c r="H22">
-        <v>0.2683078215322651</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.07542678736377746</v>
+      </c>
+      <c r="I22">
+        <v>0.0006112563457172645</v>
+      </c>
+      <c r="J22">
+        <v>-0.03190504500388509</v>
+      </c>
+      <c r="K22">
+        <v>-0.04430029416849097</v>
+      </c>
+      <c r="L22">
+        <v>-6.12071040778505e-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0.02633337962941708</v>
+        <v>0.0482212229516917</v>
       </c>
       <c r="C23">
-        <v>-0.0440099912655094</v>
+        <v>0.03536197447306689</v>
       </c>
       <c r="D23">
-        <v>-0.03657576428064999</v>
+        <v>0.09786695726209134</v>
       </c>
       <c r="E23">
-        <v>0.5164103310225577</v>
+        <v>-0.6528897208454658</v>
       </c>
       <c r="F23">
-        <v>-0.2550336517656578</v>
+        <v>-0.06603080273808876</v>
       </c>
       <c r="G23">
-        <v>-0.1741546924525094</v>
+        <v>0.1399457334450133</v>
       </c>
       <c r="H23">
-        <v>0.2672791787201636</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.07240657262655997</v>
+      </c>
+      <c r="I23">
+        <v>0.001378474248508253</v>
+      </c>
+      <c r="J23">
+        <v>-0.0303224868152941</v>
+      </c>
+      <c r="K23">
+        <v>-0.04660170844623927</v>
+      </c>
+      <c r="L23">
+        <v>0.002026800504625427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>0.08001292116014122</v>
+        <v>0.08107099974051486</v>
       </c>
       <c r="C24">
-        <v>-0.05512532015673392</v>
+        <v>0.06741431385233985</v>
       </c>
       <c r="D24">
-        <v>0.01369066714163454</v>
+        <v>-0.009089818167095854</v>
       </c>
       <c r="E24">
-        <v>0.03627894656751766</v>
+        <v>0.01307062052792562</v>
       </c>
       <c r="F24">
-        <v>-0.01098868859160533</v>
+        <v>0.1268160411484508</v>
       </c>
       <c r="G24">
-        <v>0.08710672715232375</v>
+        <v>0.02410802929629504</v>
       </c>
       <c r="H24">
-        <v>-0.05720703132951031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.07061704818815065</v>
+      </c>
+      <c r="I24">
+        <v>-0.04425370296844361</v>
+      </c>
+      <c r="J24">
+        <v>-0.08774456471667939</v>
+      </c>
+      <c r="K24">
+        <v>-0.02972682587220521</v>
+      </c>
+      <c r="L24">
+        <v>0.04463026246203786</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>0.07113346768633724</v>
+        <v>0.07784133030964248</v>
       </c>
       <c r="C25">
-        <v>-0.02706862703193559</v>
+        <v>0.05201383616077842</v>
       </c>
       <c r="D25">
-        <v>0.01677918813731525</v>
+        <v>-0.01850275312439786</v>
       </c>
       <c r="E25">
-        <v>0.02863361727816824</v>
+        <v>0.02568772445788376</v>
       </c>
       <c r="F25">
-        <v>-0.001298931793954938</v>
+        <v>0.1275050402653735</v>
       </c>
       <c r="G25">
-        <v>0.08586298990116302</v>
+        <v>0.02783862702377115</v>
       </c>
       <c r="H25">
-        <v>-0.05991706225288854</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.04891888440222315</v>
+      </c>
+      <c r="I25">
+        <v>-0.01987069568773322</v>
+      </c>
+      <c r="J25">
+        <v>-0.08440830082819076</v>
+      </c>
+      <c r="K25">
+        <v>-0.02032035513264206</v>
+      </c>
+      <c r="L25">
+        <v>0.05724322967495113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0.05262487672640017</v>
+        <v>0.04324128761750824</v>
       </c>
       <c r="C26">
-        <v>-0.03660939382696198</v>
+        <v>0.01578363530191696</v>
       </c>
       <c r="D26">
-        <v>0.0294493928578884</v>
+        <v>-0.0009554162986165967</v>
       </c>
       <c r="E26">
-        <v>0.004257164552128049</v>
+        <v>-0.009622286362518726</v>
       </c>
       <c r="F26">
-        <v>-0.01890712085038967</v>
+        <v>0.04426101715162559</v>
       </c>
       <c r="G26">
-        <v>-0.00263051844745236</v>
+        <v>0.02773604486306985</v>
       </c>
       <c r="H26">
-        <v>-0.05875406759519325</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.008151878488386914</v>
+      </c>
+      <c r="I26">
+        <v>-0.0002451965950381507</v>
+      </c>
+      <c r="J26">
+        <v>0.05016396541344682</v>
+      </c>
+      <c r="K26">
+        <v>0.1090559097534767</v>
+      </c>
+      <c r="L26">
+        <v>-0.05088218930143041</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1729,364 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.08883255665551308</v>
+        <v>0.1382698610420896</v>
       </c>
       <c r="C28">
-        <v>0.2942398667936962</v>
+        <v>-0.2897593386869207</v>
       </c>
       <c r="D28">
-        <v>0.07244232870316392</v>
+        <v>0.006604254110540627</v>
       </c>
       <c r="E28">
-        <v>0.003925386329273006</v>
+        <v>0.002617948984467149</v>
       </c>
       <c r="F28">
-        <v>0.03710927426122388</v>
+        <v>0.01619357363831648</v>
       </c>
       <c r="G28">
-        <v>-0.008506350503006367</v>
+        <v>-0.006434445441144761</v>
       </c>
       <c r="H28">
-        <v>0.05886367336291957</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.01356115332982122</v>
+      </c>
+      <c r="I28">
+        <v>0.02000510613662472</v>
+      </c>
+      <c r="J28">
+        <v>-0.01628929970986813</v>
+      </c>
+      <c r="K28">
+        <v>0.001489353248231336</v>
+      </c>
+      <c r="L28">
+        <v>-0.01895013657722438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>0.05266549907344516</v>
+        <v>0.03842460928496504</v>
       </c>
       <c r="C29">
-        <v>-0.004699951932932144</v>
+        <v>0.02257023005380868</v>
       </c>
       <c r="D29">
-        <v>0.005886402391663205</v>
+        <v>-0.01975860762387794</v>
       </c>
       <c r="E29">
-        <v>0.03771563125278659</v>
+        <v>0.001516499280860145</v>
       </c>
       <c r="F29">
-        <v>-0.02801983560647098</v>
+        <v>0.06257970947004933</v>
       </c>
       <c r="G29">
-        <v>0.003686654794013087</v>
+        <v>0.03006277015087917</v>
       </c>
       <c r="H29">
-        <v>-0.02811815534514545</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.01162986402863823</v>
+      </c>
+      <c r="I29">
+        <v>0.01265129735528666</v>
+      </c>
+      <c r="J29">
+        <v>0.03026272056182149</v>
+      </c>
+      <c r="K29">
+        <v>0.1025563090792241</v>
+      </c>
+      <c r="L29">
+        <v>0.01223740684833802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>0.1193645180701804</v>
+        <v>0.1047698315585103</v>
       </c>
       <c r="C30">
-        <v>-0.02707070583888633</v>
+        <v>0.05110946692645238</v>
       </c>
       <c r="D30">
-        <v>0.05352068848239364</v>
+        <v>0.01972536401106634</v>
       </c>
       <c r="E30">
-        <v>0.1039651839674484</v>
+        <v>0.009541155562511122</v>
       </c>
       <c r="F30">
-        <v>0.03493882169965328</v>
+        <v>0.2044773976472684</v>
       </c>
       <c r="G30">
-        <v>0.1864581272816895</v>
+        <v>0.14873492543205</v>
       </c>
       <c r="H30">
-        <v>-0.0313387437422501</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1495095728913764</v>
+      </c>
+      <c r="I30">
+        <v>0.181493889976606</v>
+      </c>
+      <c r="J30">
+        <v>-0.06488591093945573</v>
+      </c>
+      <c r="K30">
+        <v>0.05651411641712542</v>
+      </c>
+      <c r="L30">
+        <v>0.1402723333533754</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0.05145340370407018</v>
+        <v>0.03924829749830148</v>
       </c>
       <c r="C31">
-        <v>-0.01851229938365851</v>
+        <v>0.04578095675255823</v>
       </c>
       <c r="D31">
-        <v>-0.01134740386557089</v>
+        <v>-0.003458059956378002</v>
       </c>
       <c r="E31">
-        <v>0.002741546586685644</v>
+        <v>-0.002901243232280922</v>
       </c>
       <c r="F31">
-        <v>-0.02606768088745151</v>
+        <v>0.02314488533119703</v>
       </c>
       <c r="G31">
-        <v>-0.03025983245077763</v>
+        <v>0.0128566134539912</v>
       </c>
       <c r="H31">
-        <v>-0.0408408648209014</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.03411112875334173</v>
+      </c>
+      <c r="I31">
+        <v>-0.02194943167261318</v>
+      </c>
+      <c r="J31">
+        <v>-0.0003880944661818158</v>
+      </c>
+      <c r="K31">
+        <v>0.03585035256362545</v>
+      </c>
+      <c r="L31">
+        <v>0.03058586103624927</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.03190801228281247</v>
+        <v>0.04705133288039705</v>
       </c>
       <c r="C32">
-        <v>0.01081837805663635</v>
+        <v>0.003553391509992</v>
       </c>
       <c r="D32">
-        <v>9.500936605555888e-05</v>
+        <v>0.03013216382882943</v>
       </c>
       <c r="E32">
-        <v>0.08048631784418565</v>
+        <v>0.02440413271366461</v>
       </c>
       <c r="F32">
-        <v>-0.106197845328828</v>
+        <v>0.06577741341391399</v>
       </c>
       <c r="G32">
-        <v>0.05283480150201573</v>
+        <v>-0.01118682800902555</v>
       </c>
       <c r="H32">
-        <v>-0.01179969658022308</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.007487592904409191</v>
+      </c>
+      <c r="I32">
+        <v>-0.02731767948607242</v>
+      </c>
+      <c r="J32">
+        <v>-0.007964017447368106</v>
+      </c>
+      <c r="K32">
+        <v>0.07764368686055245</v>
+      </c>
+      <c r="L32">
+        <v>0.0132423052496024</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>0.1138355866114877</v>
+        <v>0.0973429023545867</v>
       </c>
       <c r="C33">
-        <v>-0.03146943744908726</v>
+        <v>0.05896935245969275</v>
       </c>
       <c r="D33">
-        <v>-0.001774634709522307</v>
+        <v>-0.0009892712643484649</v>
       </c>
       <c r="E33">
-        <v>0.01530221154209379</v>
+        <v>0.02128871342033842</v>
       </c>
       <c r="F33">
-        <v>-0.06632867085386157</v>
+        <v>0.0842216741029452</v>
       </c>
       <c r="G33">
-        <v>0.03811566722663103</v>
+        <v>0.008075213717261118</v>
       </c>
       <c r="H33">
-        <v>-0.06831445528014503</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.003417347012247763</v>
+      </c>
+      <c r="I33">
+        <v>-0.01298464110362523</v>
+      </c>
+      <c r="J33">
+        <v>0.006092804196430003</v>
+      </c>
+      <c r="K33">
+        <v>0.03372736368117486</v>
+      </c>
+      <c r="L33">
+        <v>0.02664255857677655</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>0.05680574569689655</v>
+        <v>0.06436342492888454</v>
       </c>
       <c r="C34">
-        <v>-0.05663199927301757</v>
+        <v>0.05683990388206402</v>
       </c>
       <c r="D34">
-        <v>-0.0004880178515656139</v>
+        <v>-0.006925863007491267</v>
       </c>
       <c r="E34">
-        <v>0.01531573333980654</v>
+        <v>0.02347465054413468</v>
       </c>
       <c r="F34">
-        <v>-0.007264008246836026</v>
+        <v>0.1164874762914018</v>
       </c>
       <c r="G34">
-        <v>0.06535408456715279</v>
+        <v>0.01468566005654792</v>
       </c>
       <c r="H34">
-        <v>-0.04812455488162326</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.03970086080897695</v>
+      </c>
+      <c r="I34">
+        <v>-0.02424904447683366</v>
+      </c>
+      <c r="J34">
+        <v>-0.08287544268094499</v>
+      </c>
+      <c r="K34">
+        <v>0.03213058221760755</v>
+      </c>
+      <c r="L34">
+        <v>0.02873592092623866</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>0.04613368519346705</v>
+        <v>0.02363296870149601</v>
       </c>
       <c r="C35">
-        <v>-0.02359841954414748</v>
+        <v>0.02197744841296459</v>
       </c>
       <c r="D35">
-        <v>-0.008863995308274652</v>
+        <v>-0.005233409463548536</v>
       </c>
       <c r="E35">
-        <v>0.01430647864626995</v>
+        <v>0.002988835419448056</v>
       </c>
       <c r="F35">
-        <v>0.02196003458338858</v>
+        <v>0.03212651449930178</v>
       </c>
       <c r="G35">
-        <v>0.01933404443655741</v>
+        <v>0.02310302911529234</v>
       </c>
       <c r="H35">
-        <v>-0.06719100358930916</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.01884080539303963</v>
+      </c>
+      <c r="I35">
+        <v>0.01432391453535095</v>
+      </c>
+      <c r="J35">
+        <v>-0.03409016957296419</v>
+      </c>
+      <c r="K35">
+        <v>0.08069926638110994</v>
+      </c>
+      <c r="L35">
+        <v>0.005781867219067292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>0.03708897829018185</v>
+        <v>0.02737482784107107</v>
       </c>
       <c r="C36">
-        <v>-0.01195072560180253</v>
+        <v>0.0143071824209477</v>
       </c>
       <c r="D36">
-        <v>0.01898796712409104</v>
+        <v>-0.001430202305309697</v>
       </c>
       <c r="E36">
-        <v>0.03058944638260765</v>
+        <v>-0.01353817774861377</v>
       </c>
       <c r="F36">
-        <v>-0.01458586653971639</v>
+        <v>0.06669382140226915</v>
       </c>
       <c r="G36">
-        <v>0.01696917256560936</v>
+        <v>0.01937852876638345</v>
       </c>
       <c r="H36">
-        <v>-0.07008807601170571</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.009081609855973781</v>
+      </c>
+      <c r="I36">
+        <v>0.01017888686307374</v>
+      </c>
+      <c r="J36">
+        <v>0.03534384893119033</v>
+      </c>
+      <c r="K36">
+        <v>0.03554761898362152</v>
+      </c>
+      <c r="L36">
+        <v>0.01595870138527718</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2109,174 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>0.05221546385847316</v>
+        <v>0.02692247414204632</v>
       </c>
       <c r="C38">
-        <v>-0.03045830506508032</v>
+        <v>0.04014471333740072</v>
       </c>
       <c r="D38">
-        <v>0.001940121154083453</v>
+        <v>-0.01358074116532894</v>
       </c>
       <c r="E38">
-        <v>0.02615171028660951</v>
+        <v>-0.02043951287743076</v>
       </c>
       <c r="F38">
-        <v>-0.02640639501123504</v>
+        <v>-0.04999245410415906</v>
       </c>
       <c r="G38">
-        <v>0.03563556872664</v>
+        <v>0.02953016369266685</v>
       </c>
       <c r="H38">
-        <v>0.02543577275051152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.002762561177348953</v>
+      </c>
+      <c r="I38">
+        <v>-0.001690179707945166</v>
+      </c>
+      <c r="J38">
+        <v>-0.0051043648670411</v>
+      </c>
+      <c r="K38">
+        <v>0.04500764331258604</v>
+      </c>
+      <c r="L38">
+        <v>-0.07044658628266302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>0.1037141844412968</v>
+        <v>0.10900646269561</v>
       </c>
       <c r="C39">
-        <v>-0.06714289697098517</v>
+        <v>0.08459896459156156</v>
       </c>
       <c r="D39">
-        <v>-0.006281181454711912</v>
+        <v>-0.008288058744050782</v>
       </c>
       <c r="E39">
-        <v>0.02724984515004737</v>
+        <v>0.0903150682385149</v>
       </c>
       <c r="F39">
-        <v>-0.0103165490470473</v>
+        <v>0.155274854990768</v>
       </c>
       <c r="G39">
-        <v>0.1218451995465543</v>
+        <v>0.1099783839967973</v>
       </c>
       <c r="H39">
-        <v>-0.02515961878293556</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.07434714423076967</v>
+      </c>
+      <c r="I39">
+        <v>0.003632527963911479</v>
+      </c>
+      <c r="J39">
+        <v>-0.2132636134778174</v>
+      </c>
+      <c r="K39">
+        <v>-0.04527607826013377</v>
+      </c>
+      <c r="L39">
+        <v>0.07097746938204666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>0.04802906445534974</v>
+        <v>0.03341815483282188</v>
       </c>
       <c r="C40">
-        <v>-0.02212028864955993</v>
+        <v>0.05576187608169328</v>
       </c>
       <c r="D40">
-        <v>-0.04375907062203675</v>
+        <v>-0.006832780895947081</v>
       </c>
       <c r="E40">
-        <v>0.1063324917519684</v>
+        <v>-0.04421741087280534</v>
       </c>
       <c r="F40">
-        <v>-0.02279393248829558</v>
+        <v>0.102766643090776</v>
       </c>
       <c r="G40">
-        <v>0.1458610023560201</v>
+        <v>0.0129069011878912</v>
       </c>
       <c r="H40">
-        <v>-0.1192507415773035</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.09136368860188807</v>
+      </c>
+      <c r="I40">
+        <v>-0.002828043886360729</v>
+      </c>
+      <c r="J40">
+        <v>0.05328516819145464</v>
+      </c>
+      <c r="K40">
+        <v>0.02735715223662706</v>
+      </c>
+      <c r="L40">
+        <v>-0.111896698664188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>0.04606062442824637</v>
+        <v>0.03834598246658206</v>
       </c>
       <c r="C41">
-        <v>-0.03835087585820005</v>
+        <v>0.03412565048802876</v>
       </c>
       <c r="D41">
-        <v>-0.001590810239160014</v>
+        <v>-0.01804020016685738</v>
       </c>
       <c r="E41">
-        <v>-0.007265073966442308</v>
+        <v>0.01503838503241114</v>
       </c>
       <c r="F41">
-        <v>-0.01524456200635154</v>
+        <v>0.01827625970587572</v>
       </c>
       <c r="G41">
-        <v>0.0320357402139732</v>
+        <v>0.02165462825901877</v>
       </c>
       <c r="H41">
-        <v>-0.01616700248541477</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.003427420124033729</v>
+      </c>
+      <c r="I41">
+        <v>-0.003253878175443881</v>
+      </c>
+      <c r="J41">
+        <v>-0.0201178968591245</v>
+      </c>
+      <c r="K41">
+        <v>0.06000343114455234</v>
+      </c>
+      <c r="L41">
+        <v>-0.01596308353925804</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2299,98 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>0.066626856261512</v>
+        <v>0.05182229849486112</v>
       </c>
       <c r="C43">
-        <v>-0.034075954207558</v>
+        <v>0.03774940259078174</v>
       </c>
       <c r="D43">
-        <v>0.02024076977069505</v>
+        <v>-0.0128429990236452</v>
       </c>
       <c r="E43">
-        <v>0.02560050229885978</v>
+        <v>-0.01352369987341864</v>
       </c>
       <c r="F43">
-        <v>-0.01400942623807274</v>
+        <v>0.007503376439837135</v>
       </c>
       <c r="G43">
-        <v>0.00331407370668488</v>
+        <v>0.04495494639211919</v>
       </c>
       <c r="H43">
-        <v>0.009624237370757949</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.02354090971794967</v>
+      </c>
+      <c r="I43">
+        <v>0.02209396651328532</v>
+      </c>
+      <c r="J43">
+        <v>-0.04648519150897488</v>
+      </c>
+      <c r="K43">
+        <v>0.05060992950695093</v>
+      </c>
+      <c r="L43">
+        <v>0.01247310969444097</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>0.05010208327057466</v>
+        <v>0.08830407179976008</v>
       </c>
       <c r="C44">
-        <v>-0.02044730569373393</v>
+        <v>0.06573726673142695</v>
       </c>
       <c r="D44">
-        <v>0.07988929462629368</v>
+        <v>-0.02816770984379842</v>
       </c>
       <c r="E44">
-        <v>0.0588969309805876</v>
+        <v>-0.08734794107000002</v>
       </c>
       <c r="F44">
-        <v>-0.003451339398802513</v>
+        <v>0.1723247953005414</v>
       </c>
       <c r="G44">
-        <v>0.1181035870414424</v>
+        <v>0.01308092307317858</v>
       </c>
       <c r="H44">
-        <v>-0.03251441499559366</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.05193986913213722</v>
+      </c>
+      <c r="I44">
+        <v>-0.01876020242258443</v>
+      </c>
+      <c r="J44">
+        <v>-0.008267142107590735</v>
+      </c>
+      <c r="K44">
+        <v>0.05441088545274764</v>
+      </c>
+      <c r="L44">
+        <v>-0.06563639872720373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2413,440 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>0.04345221617844619</v>
+        <v>0.0321472455953666</v>
       </c>
       <c r="C46">
-        <v>-0.04704347670012325</v>
+        <v>0.02764877332113937</v>
       </c>
       <c r="D46">
-        <v>0.01335545216501832</v>
+        <v>-0.02222110874823037</v>
       </c>
       <c r="E46">
-        <v>0.0574275674216442</v>
+        <v>-0.04009375663838263</v>
       </c>
       <c r="F46">
-        <v>-0.02964122822867822</v>
+        <v>0.03832247991911009</v>
       </c>
       <c r="G46">
-        <v>0.01641705334904732</v>
+        <v>0.02120588713772581</v>
       </c>
       <c r="H46">
-        <v>-0.03836404388603188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.03738418274134409</v>
+      </c>
+      <c r="I46">
+        <v>-0.03102200630057755</v>
+      </c>
+      <c r="J46">
+        <v>0.02838459732587699</v>
+      </c>
+      <c r="K46">
+        <v>0.1284471282579781</v>
+      </c>
+      <c r="L46">
+        <v>0.04294512535194178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>0.04610181463815127</v>
+        <v>0.04209491280744636</v>
       </c>
       <c r="C47">
-        <v>-0.01617754587644095</v>
+        <v>0.02492876606287757</v>
       </c>
       <c r="D47">
-        <v>0.005673936095064329</v>
+        <v>-0.00566808516615423</v>
       </c>
       <c r="E47">
-        <v>0.07199693765745599</v>
+        <v>-0.01980249773471133</v>
       </c>
       <c r="F47">
-        <v>-0.01702312618124049</v>
+        <v>0.03548450808285871</v>
       </c>
       <c r="G47">
-        <v>-0.02055104022491075</v>
+        <v>0.004127060762282169</v>
       </c>
       <c r="H47">
-        <v>-0.02779027476488753</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.01473303094890684</v>
+      </c>
+      <c r="I47">
+        <v>0.02411677733810069</v>
+      </c>
+      <c r="J47">
+        <v>0.02552010449929204</v>
+      </c>
+      <c r="K47">
+        <v>0.05078274893245929</v>
+      </c>
+      <c r="L47">
+        <v>-0.01497959001684452</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>0.04379081283980873</v>
+        <v>0.04101116055188184</v>
       </c>
       <c r="C48">
-        <v>-0.01536042220686343</v>
+        <v>0.01628227947419073</v>
       </c>
       <c r="D48">
-        <v>-0.003403600352300755</v>
+        <v>-0.007660419372520184</v>
       </c>
       <c r="E48">
-        <v>0.05295813581767257</v>
+        <v>-0.009862474751951195</v>
       </c>
       <c r="F48">
-        <v>-0.02675775974886527</v>
+        <v>0.07036621112439911</v>
       </c>
       <c r="G48">
-        <v>-0.00651253588100835</v>
+        <v>-0.004750592075333047</v>
       </c>
       <c r="H48">
-        <v>-0.05345316299407814</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.0412990216734136</v>
+      </c>
+      <c r="I48">
+        <v>0.01169309784815314</v>
+      </c>
+      <c r="J48">
+        <v>0.01496212999546317</v>
+      </c>
+      <c r="K48">
+        <v>0.05177463951529734</v>
+      </c>
+      <c r="L48">
+        <v>0.03098019195684656</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0.2334923542026091</v>
+        <v>0.2252320376565397</v>
       </c>
       <c r="C49">
-        <v>-0.1157767441012364</v>
+        <v>0.06311622775975599</v>
       </c>
       <c r="D49">
-        <v>0.03960518959161982</v>
+        <v>-0.08776677083446009</v>
       </c>
       <c r="E49">
-        <v>-0.02266638395227003</v>
+        <v>0.03494810921524684</v>
       </c>
       <c r="F49">
-        <v>0.1709414447971352</v>
+        <v>-0.2213456312507119</v>
       </c>
       <c r="G49">
-        <v>-0.006403419940863471</v>
+        <v>-0.09715709570890523</v>
       </c>
       <c r="H49">
-        <v>0.1602193332142048</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.2039935235987829</v>
+      </c>
+      <c r="I49">
+        <v>-0.01720481820661198</v>
+      </c>
+      <c r="J49">
+        <v>-0.09424800357118344</v>
+      </c>
+      <c r="K49">
+        <v>-0.1619494125993813</v>
+      </c>
+      <c r="L49">
+        <v>0.0314501569338538</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>0.05540053294710152</v>
+        <v>0.04516976529969115</v>
       </c>
       <c r="C50">
-        <v>-0.02525682762424327</v>
+        <v>0.03216990000376102</v>
       </c>
       <c r="D50">
-        <v>-0.00745912791172417</v>
+        <v>-0.001441645664601185</v>
       </c>
       <c r="E50">
-        <v>0.01937531699159695</v>
+        <v>0.001982715863633249</v>
       </c>
       <c r="F50">
-        <v>-0.05397447303229144</v>
+        <v>0.0421954129235804</v>
       </c>
       <c r="G50">
-        <v>-0.03320818994839012</v>
+        <v>0.03488539136077208</v>
       </c>
       <c r="H50">
-        <v>-0.04828724575513046</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.02492132118612544</v>
+      </c>
+      <c r="I50">
+        <v>-0.01280615312576721</v>
+      </c>
+      <c r="J50">
+        <v>0.02179597542371348</v>
+      </c>
+      <c r="K50">
+        <v>0.04968062891209103</v>
+      </c>
+      <c r="L50">
+        <v>0.03359499902534445</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>0.02899638286445768</v>
+        <v>0.02462211740950808</v>
       </c>
       <c r="C51">
-        <v>-0.01207335998492986</v>
+        <v>0.001440037653467271</v>
       </c>
       <c r="D51">
-        <v>0.004136561809095484</v>
+        <v>-0.01610456685181893</v>
       </c>
       <c r="E51">
-        <v>-0.006789951214057749</v>
+        <v>-0.002707088741561827</v>
       </c>
       <c r="F51">
-        <v>0.005988662677213557</v>
+        <v>-0.0215256585296772</v>
       </c>
       <c r="G51">
-        <v>0.008236361130221897</v>
+        <v>-0.011378632621831</v>
       </c>
       <c r="H51">
-        <v>0.03625461946966604</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.007648355076121666</v>
+      </c>
+      <c r="I51">
+        <v>0.007302918844468237</v>
+      </c>
+      <c r="J51">
+        <v>-0.06256023058781218</v>
+      </c>
+      <c r="K51">
+        <v>-0.02985147839432973</v>
+      </c>
+      <c r="L51">
+        <v>0.02337552628221428</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.04992258532496106</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.02678303038446792</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.004273593772099933</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.009138885469089973</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01904377720444969</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.0728055463305433</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.02786746509198227</v>
+      </c>
+      <c r="I52">
+        <v>-0.03749412143219454</v>
+      </c>
+      <c r="J52">
+        <v>0.04495352969276279</v>
+      </c>
+      <c r="K52">
+        <v>-0.0442894157736582</v>
+      </c>
+      <c r="L52">
+        <v>0.004329747939576654</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>0.1670009619644009</v>
+        <v>0.1630845681516054</v>
       </c>
       <c r="C53">
-        <v>-0.0004970128559795302</v>
+        <v>0.04303419278536712</v>
       </c>
       <c r="D53">
-        <v>0.0192189033026158</v>
+        <v>-0.02524654816498798</v>
       </c>
       <c r="E53">
-        <v>-0.1237585865463642</v>
+        <v>0.007767525032172544</v>
       </c>
       <c r="F53">
-        <v>-0.2105939167998435</v>
+        <v>-0.07388586144829787</v>
       </c>
       <c r="G53">
-        <v>-0.01811592731584143</v>
+        <v>0.1447062830737997</v>
       </c>
       <c r="H53">
-        <v>-0.0733924669375445</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.1852094404823104</v>
+      </c>
+      <c r="I53">
+        <v>-0.1677270908808474</v>
+      </c>
+      <c r="J53">
+        <v>0.09004704068991351</v>
+      </c>
+      <c r="K53">
+        <v>-0.03087411467984248</v>
+      </c>
+      <c r="L53">
+        <v>0.01430981681743073</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>0.0488983707753806</v>
+        <v>0.05689356733775587</v>
       </c>
       <c r="C54">
-        <v>-0.01343510670856587</v>
+        <v>0.04484585730444657</v>
       </c>
       <c r="D54">
-        <v>0.02094887009419653</v>
+        <v>-0.0124175991127874</v>
       </c>
       <c r="E54">
-        <v>0.05188299543432796</v>
+        <v>-0.0189089164554779</v>
       </c>
       <c r="F54">
-        <v>-0.03395363562331347</v>
+        <v>0.12443818253185</v>
       </c>
       <c r="G54">
-        <v>0.04334347604618984</v>
+        <v>-0.0197303983546139</v>
       </c>
       <c r="H54">
-        <v>-0.07682516303206818</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.02943033308018698</v>
+      </c>
+      <c r="I54">
+        <v>0.03953922314110833</v>
+      </c>
+      <c r="J54">
+        <v>0.06897324690550781</v>
+      </c>
+      <c r="K54">
+        <v>0.1438549058784586</v>
+      </c>
+      <c r="L54">
+        <v>-0.01686325683099792</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>0.09128920749665538</v>
+        <v>0.08882450548017444</v>
       </c>
       <c r="C55">
-        <v>-0.006356111412033376</v>
+        <v>0.03904870982263422</v>
       </c>
       <c r="D55">
-        <v>0.01923286132235972</v>
+        <v>-0.02131026846560929</v>
       </c>
       <c r="E55">
-        <v>-0.04622522474722254</v>
+        <v>0.02312495239947759</v>
       </c>
       <c r="F55">
-        <v>-0.1745304800642327</v>
+        <v>0.004561416170531476</v>
       </c>
       <c r="G55">
-        <v>-0.01613197103124602</v>
+        <v>0.07325467689240259</v>
       </c>
       <c r="H55">
-        <v>-0.1017314806482849</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.1170988191230477</v>
+      </c>
+      <c r="I55">
+        <v>-0.1076530240524552</v>
+      </c>
+      <c r="J55">
+        <v>0.03891440166917313</v>
+      </c>
+      <c r="K55">
+        <v>0.004799197846698182</v>
+      </c>
+      <c r="L55">
+        <v>0.002828399104193218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>0.1647173336999805</v>
+        <v>0.1550831165803476</v>
       </c>
       <c r="C56">
-        <v>-0.004384484090188066</v>
+        <v>0.06082012306744843</v>
       </c>
       <c r="D56">
-        <v>0.01765931570657921</v>
+        <v>-0.047679215486644</v>
       </c>
       <c r="E56">
-        <v>-0.1068680506909558</v>
+        <v>0.02188572069603013</v>
       </c>
       <c r="F56">
-        <v>-0.2229643776294305</v>
+        <v>-0.04370205532592574</v>
       </c>
       <c r="G56">
-        <v>-0.05479712883627188</v>
+        <v>0.1331418427997297</v>
       </c>
       <c r="H56">
-        <v>-0.0766621978193097</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1606880704738708</v>
+      </c>
+      <c r="I56">
+        <v>-0.1647411737200108</v>
+      </c>
+      <c r="J56">
+        <v>0.06023427113473095</v>
+      </c>
+      <c r="K56">
+        <v>-0.03059687827437573</v>
+      </c>
+      <c r="L56">
+        <v>-0.01836350511263182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2869,1694 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>0.02727329162979208</v>
+        <v>0.04152997107218362</v>
       </c>
       <c r="C58">
-        <v>-0.0441184448968236</v>
+        <v>0.03577511864193515</v>
       </c>
       <c r="D58">
-        <v>-0.01831980455723488</v>
+        <v>0.01324532666130693</v>
       </c>
       <c r="E58">
-        <v>0.4000582709857045</v>
+        <v>-0.08059489486294809</v>
       </c>
       <c r="F58">
-        <v>0.3447979192768392</v>
+        <v>0.01942188158324427</v>
       </c>
       <c r="G58">
-        <v>-0.1552240071473692</v>
+        <v>0.03290081845798384</v>
       </c>
       <c r="H58">
-        <v>-0.5460593866475355</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.1362942933178158</v>
+      </c>
+      <c r="I58">
+        <v>0.1384298064196704</v>
+      </c>
+      <c r="J58">
+        <v>-0.1722759003382745</v>
+      </c>
+      <c r="K58">
+        <v>0.1318668739351379</v>
+      </c>
+      <c r="L58">
+        <v>0.3389537228391836</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>0.1831793780356122</v>
+        <v>0.2107781003037806</v>
       </c>
       <c r="C59">
-        <v>0.4034458076773191</v>
+        <v>-0.3018545700799689</v>
       </c>
       <c r="D59">
-        <v>0.08674053574785041</v>
+        <v>-0.01823541381422297</v>
       </c>
       <c r="E59">
-        <v>-0.0191642350934225</v>
+        <v>0.03872911278891467</v>
       </c>
       <c r="F59">
-        <v>-0.03065774723038264</v>
+        <v>0.0343859046977625</v>
       </c>
       <c r="G59">
-        <v>0.06366645977720814</v>
+        <v>-0.02847542950148737</v>
       </c>
       <c r="H59">
-        <v>0.02988627499149439</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.1113122382149625</v>
+      </c>
+      <c r="I59">
+        <v>-0.06093432184137916</v>
+      </c>
+      <c r="J59">
+        <v>-0.05477171627820615</v>
+      </c>
+      <c r="K59">
+        <v>-0.07604340721407901</v>
+      </c>
+      <c r="L59">
+        <v>-0.07448044968960717</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>0.2627117630299007</v>
+        <v>0.2387017067733581</v>
       </c>
       <c r="C60">
-        <v>-0.05380016820649022</v>
+        <v>0.1030262520410076</v>
       </c>
       <c r="D60">
-        <v>0.0750981993491632</v>
+        <v>-0.108873865314611</v>
       </c>
       <c r="E60">
-        <v>-0.01979321834170421</v>
+        <v>0.04157893572050035</v>
       </c>
       <c r="F60">
-        <v>0.06039361368559234</v>
+        <v>-0.1431272746807976</v>
       </c>
       <c r="G60">
-        <v>-0.07200251379337737</v>
+        <v>-0.02239945697674291</v>
       </c>
       <c r="H60">
-        <v>0.167742788603164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.05437641782806382</v>
+      </c>
+      <c r="I60">
+        <v>0.05361103185859802</v>
+      </c>
+      <c r="J60">
+        <v>0.08983629837798937</v>
+      </c>
+      <c r="K60">
+        <v>-0.2356021776754788</v>
+      </c>
+      <c r="L60">
+        <v>0.09659289484084921</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>0.09102212964269635</v>
+        <v>0.1026700810526755</v>
       </c>
       <c r="C61">
-        <v>-0.03722017790953042</v>
+        <v>0.05281241302849359</v>
       </c>
       <c r="D61">
-        <v>0.003310415177222386</v>
+        <v>-0.02494881748150119</v>
       </c>
       <c r="E61">
-        <v>-0.005136742180202695</v>
+        <v>0.04695897536625158</v>
       </c>
       <c r="F61">
-        <v>-0.01510353161166812</v>
+        <v>0.1334904095595186</v>
       </c>
       <c r="G61">
-        <v>0.04466212690941833</v>
+        <v>0.08709572113310368</v>
       </c>
       <c r="H61">
-        <v>-0.001637074611123456</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.01696792130305083</v>
+      </c>
+      <c r="I61">
+        <v>-0.02582888858059233</v>
+      </c>
+      <c r="J61">
+        <v>-0.1121316944144758</v>
+      </c>
+      <c r="K61">
+        <v>0.03162283446149116</v>
+      </c>
+      <c r="L61">
+        <v>0.03284433260146098</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0.1489171785459618</v>
+        <v>0.1465795514136859</v>
       </c>
       <c r="C62">
-        <v>-0.0204324750311894</v>
+        <v>0.05933027542936921</v>
       </c>
       <c r="D62">
-        <v>-0.02582791253259002</v>
+        <v>-0.0183027376748042</v>
       </c>
       <c r="E62">
-        <v>-0.1726472938372474</v>
+        <v>0.03089041404250081</v>
       </c>
       <c r="F62">
-        <v>-0.210486645859236</v>
+        <v>-0.05910457832834302</v>
       </c>
       <c r="G62">
-        <v>0.007772670049355905</v>
+        <v>0.1042009442191385</v>
       </c>
       <c r="H62">
-        <v>-0.08423680962497662</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.1349881679588541</v>
+      </c>
+      <c r="I62">
+        <v>-0.1814969271704789</v>
+      </c>
+      <c r="J62">
+        <v>0.1216790481904797</v>
+      </c>
+      <c r="K62">
+        <v>0.001114533396547306</v>
+      </c>
+      <c r="L62">
+        <v>-0.03033806034297818</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>0.04061898553734938</v>
+        <v>0.0443013241934205</v>
       </c>
       <c r="C63">
-        <v>-0.02394602963643606</v>
+        <v>0.02614445860927317</v>
       </c>
       <c r="D63">
-        <v>-0.006975357119434152</v>
+        <v>0.01515949501935257</v>
       </c>
       <c r="E63">
-        <v>0.006267111080337324</v>
+        <v>0.009046626318518316</v>
       </c>
       <c r="F63">
-        <v>-0.01631709250798128</v>
+        <v>0.06739390807806289</v>
       </c>
       <c r="G63">
-        <v>0.008012177938184383</v>
+        <v>0.006879617907700463</v>
       </c>
       <c r="H63">
-        <v>-0.06385626187397533</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.008335427004424641</v>
+      </c>
+      <c r="I63">
+        <v>0.009835562871948342</v>
+      </c>
+      <c r="J63">
+        <v>-0.0004282204738473392</v>
+      </c>
+      <c r="K63">
+        <v>0.04433700988743913</v>
+      </c>
+      <c r="L63">
+        <v>0.0368385454742344</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>0.1066959978945517</v>
+        <v>0.0992896490860995</v>
       </c>
       <c r="C64">
-        <v>-0.02244543386666415</v>
+        <v>0.0457445922102369</v>
       </c>
       <c r="D64">
-        <v>0.0388862381042147</v>
+        <v>-0.05123912516143241</v>
       </c>
       <c r="E64">
-        <v>0.04139851406681064</v>
+        <v>-0.01817537613995115</v>
       </c>
       <c r="F64">
-        <v>0.01096088181036876</v>
+        <v>0.06584174289352264</v>
       </c>
       <c r="G64">
-        <v>0.07314833837289762</v>
+        <v>0.0376171821450251</v>
       </c>
       <c r="H64">
-        <v>0.03272573279019868</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.06118722536485612</v>
+      </c>
+      <c r="I64">
+        <v>0.06683659675830782</v>
+      </c>
+      <c r="J64">
+        <v>-0.02032047239531888</v>
+      </c>
+      <c r="K64">
+        <v>-0.008425593545100949</v>
+      </c>
+      <c r="L64">
+        <v>-0.002596707541016016</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>0.1231991286085567</v>
+        <v>0.1249372840680968</v>
       </c>
       <c r="C65">
-        <v>-0.04470289371217571</v>
+        <v>0.04956306389363347</v>
       </c>
       <c r="D65">
-        <v>0.03101936221844669</v>
+        <v>0.01298065829505154</v>
       </c>
       <c r="E65">
-        <v>0.08717014677468166</v>
+        <v>0.01162221471103377</v>
       </c>
       <c r="F65">
-        <v>0.1552226006334301</v>
+        <v>-0.02802152985050733</v>
       </c>
       <c r="G65">
-        <v>-0.2260493472920068</v>
+        <v>-0.05052926210078929</v>
       </c>
       <c r="H65">
-        <v>-0.2995474718318797</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.0319840509727354</v>
+      </c>
+      <c r="I65">
+        <v>0.3482932107429915</v>
+      </c>
+      <c r="J65">
+        <v>0.4909084791991069</v>
+      </c>
+      <c r="K65">
+        <v>-0.09939736914538386</v>
+      </c>
+      <c r="L65">
+        <v>0.3710506776143078</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>0.1623208075681897</v>
+        <v>0.1386588866979226</v>
       </c>
       <c r="C66">
-        <v>-0.0834176590900787</v>
+        <v>0.1153965490183407</v>
       </c>
       <c r="D66">
-        <v>-0.01547254330255669</v>
+        <v>-0.01284399698830524</v>
       </c>
       <c r="E66">
-        <v>-0.01619806109357381</v>
+        <v>0.1071487402504988</v>
       </c>
       <c r="F66">
-        <v>-0.02262838282395356</v>
+        <v>0.1535795440791261</v>
       </c>
       <c r="G66">
-        <v>0.2496345006035303</v>
+        <v>0.1364428004669545</v>
       </c>
       <c r="H66">
-        <v>-0.03612659605999873</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.09983392647816246</v>
+      </c>
+      <c r="I66">
+        <v>-0.04571486941543734</v>
+      </c>
+      <c r="J66">
+        <v>-0.2107292275762882</v>
+      </c>
+      <c r="K66">
+        <v>-0.1080931791253062</v>
+      </c>
+      <c r="L66">
+        <v>0.04276111083467382</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>0.09893074373556138</v>
+        <v>0.0733119980237102</v>
       </c>
       <c r="C67">
-        <v>-0.04781903624150772</v>
+        <v>0.04762534249355112</v>
       </c>
       <c r="D67">
-        <v>0.02090887194325218</v>
+        <v>-0.01213737152392406</v>
       </c>
       <c r="E67">
-        <v>0.004642719513184811</v>
+        <v>-0.02193203096232059</v>
       </c>
       <c r="F67">
-        <v>-0.02233942598570646</v>
+        <v>-0.03813104660370769</v>
       </c>
       <c r="G67">
-        <v>0.03425621177659155</v>
+        <v>0.02379718181739503</v>
       </c>
       <c r="H67">
-        <v>0.04921662548114118</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.02345937776728965</v>
+      </c>
+      <c r="I67">
+        <v>0.01154167875255536</v>
+      </c>
+      <c r="J67">
+        <v>-0.0530669729716955</v>
+      </c>
+      <c r="K67">
+        <v>-0.0130381155367409</v>
+      </c>
+      <c r="L67">
+        <v>-0.1004647100585765</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>0.06468131127724507</v>
+        <v>0.1137751281198074</v>
       </c>
       <c r="C68">
-        <v>0.2909257855759427</v>
+        <v>-0.2720814366564769</v>
       </c>
       <c r="D68">
-        <v>0.0339958464555725</v>
+        <v>0.02356282651081941</v>
       </c>
       <c r="E68">
-        <v>0.01929830550990292</v>
+        <v>0.008660778475434608</v>
       </c>
       <c r="F68">
-        <v>-0.01858892894671677</v>
+        <v>0.04081747218036494</v>
       </c>
       <c r="G68">
-        <v>-0.03683453311439297</v>
+        <v>0.01278606996343976</v>
       </c>
       <c r="H68">
-        <v>-0.0386910207125202</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.02089382129080292</v>
+      </c>
+      <c r="I68">
+        <v>0.02174004466253756</v>
+      </c>
+      <c r="J68">
+        <v>0.03115396159612331</v>
+      </c>
+      <c r="K68">
+        <v>0.0139702400779813</v>
+      </c>
+      <c r="L68">
+        <v>0.04741029201225325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>0.04274464835406695</v>
+        <v>0.0402947998636165</v>
       </c>
       <c r="C69">
-        <v>-0.02064429174421937</v>
+        <v>0.006475420285731701</v>
       </c>
       <c r="D69">
-        <v>0.005734506731942725</v>
+        <v>-0.01065004099122604</v>
       </c>
       <c r="E69">
-        <v>0.01003007841881772</v>
+        <v>-0.00550613289010124</v>
       </c>
       <c r="F69">
-        <v>-0.02034838421329205</v>
+        <v>0.01386823656800542</v>
       </c>
       <c r="G69">
-        <v>0.03090566408380945</v>
+        <v>0.03860392839885648</v>
       </c>
       <c r="H69">
-        <v>-0.01777215950109301</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.02234726882287043</v>
+      </c>
+      <c r="I69">
+        <v>0.012866730409909</v>
+      </c>
+      <c r="J69">
+        <v>0.0006620521816540409</v>
+      </c>
+      <c r="K69">
+        <v>0.0221677111551547</v>
+      </c>
+      <c r="L69">
+        <v>-0.005404307765703809</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>0.0752691355841093</v>
+        <v>0.05196485281592324</v>
       </c>
       <c r="C70">
-        <v>-0.009983454260917589</v>
+        <v>0.01627827627654036</v>
       </c>
       <c r="D70">
-        <v>0.03578842110246627</v>
+        <v>-0.0353193870488492</v>
       </c>
       <c r="E70">
-        <v>0.009868428852371732</v>
+        <v>0.02174145596399966</v>
       </c>
       <c r="F70">
-        <v>0.09070968662052309</v>
+        <v>0.01288164923124341</v>
       </c>
       <c r="G70">
-        <v>-0.04498397818915792</v>
+        <v>-0.009181020380227285</v>
       </c>
       <c r="H70">
-        <v>0.05915585804860929</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.01216074383727092</v>
+      </c>
+      <c r="I70">
+        <v>0.1199367989297234</v>
+      </c>
+      <c r="J70">
+        <v>0.08265519655283309</v>
+      </c>
+      <c r="K70">
+        <v>0.2948541007263167</v>
+      </c>
+      <c r="L70">
+        <v>-0.1688236294698272</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>0.07403025456379575</v>
+        <v>0.1283086078879797</v>
       </c>
       <c r="C71">
-        <v>0.2882117106893113</v>
+        <v>-0.2837593409084785</v>
       </c>
       <c r="D71">
-        <v>0.06235100394838302</v>
+        <v>-0.006414248568446796</v>
       </c>
       <c r="E71">
-        <v>0.006777300612595166</v>
+        <v>-0.000167871337749091</v>
       </c>
       <c r="F71">
-        <v>0.00818580651486482</v>
+        <v>0.04624180498999633</v>
       </c>
       <c r="G71">
-        <v>-0.0139078163800827</v>
+        <v>0.0412230093642183</v>
       </c>
       <c r="H71">
-        <v>-0.01493444357031929</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.00661378867115284</v>
+      </c>
+      <c r="I71">
+        <v>0.02228000569030831</v>
+      </c>
+      <c r="J71">
+        <v>-0.004654451793681283</v>
+      </c>
+      <c r="K71">
+        <v>-0.00885815180051224</v>
+      </c>
+      <c r="L71">
+        <v>0.03009921831863502</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>0.1617797021329289</v>
+        <v>0.1498226147211764</v>
       </c>
       <c r="C72">
-        <v>0.01369942874355394</v>
+        <v>0.02868522843343077</v>
       </c>
       <c r="D72">
-        <v>-0.2392011567616558</v>
+        <v>0.09198267779593544</v>
       </c>
       <c r="E72">
-        <v>-0.03288054484030928</v>
+        <v>0.02898278966037313</v>
       </c>
       <c r="F72">
-        <v>-0.04977861798697391</v>
+        <v>-0.004405918983930697</v>
       </c>
       <c r="G72">
-        <v>0.06702510062314339</v>
+        <v>0.06530288682619989</v>
       </c>
       <c r="H72">
-        <v>-0.05631566997372025</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.03367157665311068</v>
+      </c>
+      <c r="I72">
+        <v>-0.03638833702686974</v>
+      </c>
+      <c r="J72">
+        <v>0.1202676219639987</v>
+      </c>
+      <c r="K72">
+        <v>-0.1049330433696193</v>
+      </c>
+      <c r="L72">
+        <v>0.004947327884593285</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>0.2910471049735344</v>
+        <v>0.2387161942913691</v>
       </c>
       <c r="C73">
-        <v>-0.1761771148096634</v>
+        <v>0.1231814478277964</v>
       </c>
       <c r="D73">
-        <v>0.0796082059281427</v>
+        <v>-0.1637110087690999</v>
       </c>
       <c r="E73">
-        <v>-0.08716632500948868</v>
+        <v>0.1098106838912971</v>
       </c>
       <c r="F73">
-        <v>0.3058102393980734</v>
+        <v>-0.4361588784260337</v>
       </c>
       <c r="G73">
-        <v>-0.1338229170178548</v>
+        <v>-0.03389890386179676</v>
       </c>
       <c r="H73">
-        <v>0.1071179809008766</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.2459661211599156</v>
+      </c>
+      <c r="I73">
+        <v>0.1462345296019662</v>
+      </c>
+      <c r="J73">
+        <v>-0.2809298855941241</v>
+      </c>
+      <c r="K73">
+        <v>-0.1990592435035946</v>
+      </c>
+      <c r="L73">
+        <v>0.0904010566036032</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>0.09452242729567316</v>
+        <v>0.1058286077826069</v>
       </c>
       <c r="C74">
-        <v>-0.03411417576487914</v>
+        <v>0.0704895197226353</v>
       </c>
       <c r="D74">
-        <v>0.004109650745354936</v>
+        <v>-0.008108300463718621</v>
       </c>
       <c r="E74">
-        <v>-0.04890170323821294</v>
+        <v>0.01228468803969652</v>
       </c>
       <c r="F74">
-        <v>-0.08981744279846265</v>
+        <v>-0.04764315371943478</v>
       </c>
       <c r="G74">
-        <v>-0.04219301674130067</v>
+        <v>0.1200332121807896</v>
       </c>
       <c r="H74">
-        <v>-0.06065133074310138</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.07893290532987292</v>
+      </c>
+      <c r="I74">
+        <v>-0.07443048655894308</v>
+      </c>
+      <c r="J74">
+        <v>0.02179947926344599</v>
+      </c>
+      <c r="K74">
+        <v>-0.006995759977897275</v>
+      </c>
+      <c r="L74">
+        <v>0.002805234995126746</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>0.09769261377824943</v>
+        <v>0.101099807885255</v>
       </c>
       <c r="C75">
-        <v>-0.02140184375235863</v>
+        <v>0.05259134725588184</v>
       </c>
       <c r="D75">
-        <v>-0.002952735141291433</v>
+        <v>-0.005017299953461901</v>
       </c>
       <c r="E75">
-        <v>-0.05033611877944823</v>
+        <v>0.008317700431049126</v>
       </c>
       <c r="F75">
-        <v>-0.1195263948875219</v>
+        <v>-0.03374035111678676</v>
       </c>
       <c r="G75">
-        <v>-0.048023127631076</v>
+        <v>0.04111770663594334</v>
       </c>
       <c r="H75">
-        <v>-0.02665269464913856</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.1132945321555984</v>
+      </c>
+      <c r="I75">
+        <v>-0.08580790985534675</v>
+      </c>
+      <c r="J75">
+        <v>0.04134331198244531</v>
+      </c>
+      <c r="K75">
+        <v>-0.01266467724115178</v>
+      </c>
+      <c r="L75">
+        <v>-0.006797516598476086</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>0.1326932041686023</v>
+        <v>0.07167844703318994</v>
       </c>
       <c r="C76">
-        <v>-0.03854545690516983</v>
+        <v>0.04292704797641386</v>
       </c>
       <c r="D76">
-        <v>0.01735713275503361</v>
+        <v>-0.03402660021206571</v>
       </c>
       <c r="E76">
-        <v>-0.05705569403617308</v>
+        <v>5.64472963064958e-05</v>
       </c>
       <c r="F76">
-        <v>-0.2209070384670204</v>
+        <v>-0.06887951288361263</v>
       </c>
       <c r="G76">
-        <v>-0.07742191510150377</v>
+        <v>0.05288809658919566</v>
       </c>
       <c r="H76">
-        <v>-0.04429982471436642</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.1498430701582081</v>
+      </c>
+      <c r="I76">
+        <v>-0.1107563371804626</v>
+      </c>
+      <c r="J76">
+        <v>-0.01325325814261083</v>
+      </c>
+      <c r="K76">
+        <v>0.04537194438628217</v>
+      </c>
+      <c r="L76">
+        <v>0.002104153948751155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>0.07596925471648459</v>
+        <v>0.07244266764127281</v>
       </c>
       <c r="C77">
-        <v>-0.03050892593397295</v>
+        <v>0.03517827596804519</v>
       </c>
       <c r="D77">
-        <v>0.02302410878256855</v>
+        <v>-0.03470195431282413</v>
       </c>
       <c r="E77">
-        <v>0.1220492625088747</v>
+        <v>0.002503192667088295</v>
       </c>
       <c r="F77">
-        <v>0.1783908791674014</v>
+        <v>0.2755166346257421</v>
       </c>
       <c r="G77">
-        <v>0.616555363286034</v>
+        <v>-0.02765927741439874</v>
       </c>
       <c r="H77">
-        <v>0.2530892449916843</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.05770096977564202</v>
+      </c>
+      <c r="I77">
+        <v>0.2314291761971531</v>
+      </c>
+      <c r="J77">
+        <v>0.05372946099870608</v>
+      </c>
+      <c r="K77">
+        <v>-0.4808798383051015</v>
+      </c>
+      <c r="L77">
+        <v>-0.5218366298317129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>0.1890817131647458</v>
+        <v>0.155357177612181</v>
       </c>
       <c r="C78">
-        <v>-0.08192466003014869</v>
+        <v>0.1163237601727964</v>
       </c>
       <c r="D78">
-        <v>0.04348089444705037</v>
+        <v>0.04380831111302549</v>
       </c>
       <c r="E78">
-        <v>0.2177919420928555</v>
+        <v>-0.185830262515098</v>
       </c>
       <c r="F78">
-        <v>-0.06270783547024331</v>
+        <v>0.1923768509882436</v>
       </c>
       <c r="G78">
-        <v>0.081238824473641</v>
+        <v>-0.719883369542124</v>
       </c>
       <c r="H78">
-        <v>0.06918592719838257</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.4366203741969502</v>
+      </c>
+      <c r="I78">
+        <v>-0.07234732710692743</v>
+      </c>
+      <c r="J78">
+        <v>-0.2185571689402078</v>
+      </c>
+      <c r="K78">
+        <v>-0.1407886362429113</v>
+      </c>
+      <c r="L78">
+        <v>0.1371278379187723</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>0.1353693261281409</v>
+        <v>0.1348704146847313</v>
       </c>
       <c r="C79">
-        <v>-0.0296410291483012</v>
+        <v>0.0647536940367668</v>
       </c>
       <c r="D79">
-        <v>0.0007029335902383449</v>
+        <v>-0.02337931767380634</v>
       </c>
       <c r="E79">
-        <v>-0.06946461545371824</v>
+        <v>-0.001438250989859154</v>
       </c>
       <c r="F79">
-        <v>-0.1646199015721484</v>
+        <v>-0.008963916804328878</v>
       </c>
       <c r="G79">
-        <v>-0.01105471021441483</v>
+        <v>0.1085499657757983</v>
       </c>
       <c r="H79">
-        <v>-0.06691637463358259</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.107775485212174</v>
+      </c>
+      <c r="I79">
+        <v>-0.1234547105507788</v>
+      </c>
+      <c r="J79">
+        <v>0.07170179228877653</v>
+      </c>
+      <c r="K79">
+        <v>-0.01341083196031307</v>
+      </c>
+      <c r="L79">
+        <v>-0.003376021880901217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>0.04024913082172456</v>
+        <v>0.06217207782927679</v>
       </c>
       <c r="C80">
-        <v>-0.01998618526367981</v>
+        <v>0.03291136088727061</v>
       </c>
       <c r="D80">
-        <v>0.01595131680022512</v>
+        <v>-0.02804873131029199</v>
       </c>
       <c r="E80">
-        <v>-0.03154753800842251</v>
+        <v>0.0621220535643882</v>
       </c>
       <c r="F80">
-        <v>0.0247511151065535</v>
+        <v>0.03450070349511244</v>
       </c>
       <c r="G80">
-        <v>0.002049615587561906</v>
+        <v>0.005048947410486183</v>
       </c>
       <c r="H80">
-        <v>-0.05383020312406941</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.05674898448223472</v>
+      </c>
+      <c r="I80">
+        <v>0.09880612864557248</v>
+      </c>
+      <c r="J80">
+        <v>0.0225512952253449</v>
+      </c>
+      <c r="K80">
+        <v>0.1779004668796544</v>
+      </c>
+      <c r="L80">
+        <v>0.05699476946381967</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>0.1057407980825116</v>
+        <v>0.1242869248581899</v>
       </c>
       <c r="C81">
-        <v>-0.0248043507579867</v>
+        <v>0.06055219636659677</v>
       </c>
       <c r="D81">
-        <v>0.01478188389421841</v>
+        <v>-0.02690612735784003</v>
       </c>
       <c r="E81">
-        <v>-0.07641380324523915</v>
+        <v>-0.003783319958553208</v>
       </c>
       <c r="F81">
-        <v>-0.1195501620025612</v>
+        <v>0.003252637024461086</v>
       </c>
       <c r="G81">
-        <v>-0.02070502759563328</v>
+        <v>0.074043400928045</v>
       </c>
       <c r="H81">
-        <v>0.02840005260111254</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.07345986870674132</v>
+      </c>
+      <c r="I81">
+        <v>-0.118674930777948</v>
+      </c>
+      <c r="J81">
+        <v>0.03883016108487239</v>
+      </c>
+      <c r="K81">
+        <v>-0.005569959874536013</v>
+      </c>
+      <c r="L81">
+        <v>-0.004226196599701116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>0.1126299748878203</v>
+        <v>0.1297519621222001</v>
       </c>
       <c r="C82">
-        <v>-0.02596904611205885</v>
+        <v>0.04627856251111778</v>
       </c>
       <c r="D82">
-        <v>0.06670297998751916</v>
+        <v>-0.04233203187951238</v>
       </c>
       <c r="E82">
-        <v>-0.1154039017135649</v>
+        <v>0.02207504974856183</v>
       </c>
       <c r="F82">
-        <v>-0.2173342876075242</v>
+        <v>-0.04501105371278311</v>
       </c>
       <c r="G82">
-        <v>-0.004261068990409365</v>
+        <v>0.151651409188681</v>
       </c>
       <c r="H82">
-        <v>-0.08691474326075081</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.1382939677061771</v>
+      </c>
+      <c r="I82">
+        <v>-0.1838534618076491</v>
+      </c>
+      <c r="J82">
+        <v>0.03326099345213267</v>
+      </c>
+      <c r="K82">
+        <v>0.06476577220992691</v>
+      </c>
+      <c r="L82">
+        <v>-0.07003231628400126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>0.09069070776357815</v>
+        <v>0.08771816015763523</v>
       </c>
       <c r="C83">
-        <v>-0.06212120528557132</v>
+        <v>0.1136123031326198</v>
       </c>
       <c r="D83">
-        <v>0.05510698781476307</v>
+        <v>-0.02057327241311343</v>
       </c>
       <c r="E83">
-        <v>0.006434882381019793</v>
+        <v>0.01447986083201985</v>
       </c>
       <c r="F83">
-        <v>0.08640596140467313</v>
+        <v>0.07883908081867198</v>
       </c>
       <c r="G83">
-        <v>0.0301661347066015</v>
+        <v>0.02738776652800635</v>
       </c>
       <c r="H83">
-        <v>-0.04647329803827101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.06217627499198106</v>
+      </c>
+      <c r="I83">
+        <v>0.1729344273471299</v>
+      </c>
+      <c r="J83">
+        <v>-0.03388978395240182</v>
+      </c>
+      <c r="K83">
+        <v>0.1359103696974931</v>
+      </c>
+      <c r="L83">
+        <v>-0.125766109571437</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>0.06009154317081181</v>
+        <v>0.0568595568275554</v>
       </c>
       <c r="C84">
-        <v>-0.04813297114383962</v>
+        <v>-0.02953054124236173</v>
       </c>
       <c r="D84">
-        <v>-0.0495056064156584</v>
+        <v>-0.008136623623082368</v>
       </c>
       <c r="E84">
-        <v>0.007051031308805145</v>
+        <v>0.01279056976803732</v>
       </c>
       <c r="F84">
-        <v>-0.05740836589718156</v>
+        <v>0.008297619990288156</v>
       </c>
       <c r="G84">
-        <v>-0.1287043556255169</v>
+        <v>-0.1857579111367204</v>
       </c>
       <c r="H84">
-        <v>-0.0272291104280486</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.2260371966052465</v>
+      </c>
+      <c r="I84">
+        <v>-0.2026308775875546</v>
+      </c>
+      <c r="J84">
+        <v>-0.145392818481086</v>
+      </c>
+      <c r="K84">
+        <v>0.1922338276509854</v>
+      </c>
+      <c r="L84">
+        <v>0.08724040377605426</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>0.09945989420919306</v>
+        <v>0.1139770120896513</v>
       </c>
       <c r="C85">
-        <v>-0.03512359945212078</v>
+        <v>0.04897331442252903</v>
       </c>
       <c r="D85">
-        <v>0.02486629599155004</v>
+        <v>-0.04839353119212165</v>
       </c>
       <c r="E85">
-        <v>-0.06373612441088217</v>
+        <v>-6.798329077692423e-05</v>
       </c>
       <c r="F85">
-        <v>-0.181721248356856</v>
+        <v>-0.00209649036007838</v>
       </c>
       <c r="G85">
-        <v>0.01445302247734001</v>
+        <v>0.09896955083099496</v>
       </c>
       <c r="H85">
-        <v>-0.09429839586265784</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.1089484051451997</v>
+      </c>
+      <c r="I85">
+        <v>-0.1299935149614841</v>
+      </c>
+      <c r="J85">
+        <v>0.07198856885416718</v>
+      </c>
+      <c r="K85">
+        <v>-0.03930406109075874</v>
+      </c>
+      <c r="L85">
+        <v>-0.005003484123753716</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>0.05923140136761657</v>
+        <v>0.07471307253803151</v>
       </c>
       <c r="C86">
-        <v>-0.03822382056835563</v>
+        <v>0.02346916973184855</v>
       </c>
       <c r="D86">
-        <v>0.03613154983550284</v>
+        <v>-0.101122688869891</v>
       </c>
       <c r="E86">
-        <v>0.04028786037471602</v>
+        <v>-0.03501468353014662</v>
       </c>
       <c r="F86">
-        <v>0.03149926497473608</v>
+        <v>0.04957720321493372</v>
       </c>
       <c r="G86">
-        <v>0.04558712857444766</v>
+        <v>-0.30727034553305</v>
       </c>
       <c r="H86">
-        <v>-0.05848075145267825</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.4864756198719862</v>
+      </c>
+      <c r="I86">
+        <v>-0.4980929330429202</v>
+      </c>
+      <c r="J86">
+        <v>0.3889046785126981</v>
+      </c>
+      <c r="K86">
+        <v>0.02845424255566615</v>
+      </c>
+      <c r="L86">
+        <v>-0.01067478498471368</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>0.09277139208003492</v>
+        <v>0.1130441304371858</v>
       </c>
       <c r="C87">
-        <v>-0.04506051258312335</v>
+        <v>0.09747168666854435</v>
       </c>
       <c r="D87">
-        <v>0.008393386810855998</v>
+        <v>-0.0315544669497436</v>
       </c>
       <c r="E87">
-        <v>0.06206180826780314</v>
+        <v>-0.02953118347122215</v>
       </c>
       <c r="F87">
-        <v>0.003242702639687576</v>
+        <v>0.1271654083053173</v>
       </c>
       <c r="G87">
-        <v>0.1341684768271687</v>
+        <v>-0.01338981848981213</v>
       </c>
       <c r="H87">
-        <v>-0.03128397662296981</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.0822188588505294</v>
+      </c>
+      <c r="I87">
+        <v>0.08515030537553861</v>
+      </c>
+      <c r="J87">
+        <v>0.1234583632855781</v>
+      </c>
+      <c r="K87">
+        <v>-0.04505909149474916</v>
+      </c>
+      <c r="L87">
+        <v>-0.2894442603752085</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>0.06228922602034846</v>
+        <v>0.05671793297396949</v>
       </c>
       <c r="C88">
-        <v>-0.03416503029161576</v>
+        <v>0.04952986711051056</v>
       </c>
       <c r="D88">
-        <v>0.0186169707254229</v>
+        <v>-0.03082208322345105</v>
       </c>
       <c r="E88">
-        <v>0.005665447865913295</v>
+        <v>0.02607380214927673</v>
       </c>
       <c r="F88">
-        <v>0.01019196521099078</v>
+        <v>0.03139874999443962</v>
       </c>
       <c r="G88">
-        <v>0.04386221061281727</v>
+        <v>0.04432955957192367</v>
       </c>
       <c r="H88">
-        <v>-0.01078195046843861</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.008985749321258178</v>
+      </c>
+      <c r="I88">
+        <v>0.0224148214718175</v>
+      </c>
+      <c r="J88">
+        <v>-0.03686513807296603</v>
+      </c>
+      <c r="K88">
+        <v>0.04923001868458104</v>
+      </c>
+      <c r="L88">
+        <v>0.0469582209372546</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>0.1274479218124351</v>
+        <v>0.1913503926461033</v>
       </c>
       <c r="C89">
-        <v>0.3532153393817042</v>
+        <v>-0.3707269228156404</v>
       </c>
       <c r="D89">
-        <v>0.1042468800674348</v>
+        <v>-0.02463302895875929</v>
       </c>
       <c r="E89">
-        <v>0.082585986665242</v>
+        <v>-0.06197155666742737</v>
       </c>
       <c r="F89">
-        <v>0.05747865682430333</v>
+        <v>0.02746098215047564</v>
       </c>
       <c r="G89">
-        <v>0.02007932694373756</v>
+        <v>-0.0241529851557201</v>
       </c>
       <c r="H89">
-        <v>-0.03531028239417156</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.009925554708788724</v>
+      </c>
+      <c r="I89">
+        <v>0.05205248547048631</v>
+      </c>
+      <c r="J89">
+        <v>-0.04221405606121662</v>
+      </c>
+      <c r="K89">
+        <v>0.05495001850874834</v>
+      </c>
+      <c r="L89">
+        <v>-0.01071036161355179</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>0.09861116456592486</v>
+        <v>0.1450988520522436</v>
       </c>
       <c r="C90">
-        <v>0.2794179363632667</v>
+        <v>-0.2718810039404131</v>
       </c>
       <c r="D90">
-        <v>0.04568356740317686</v>
+        <v>-0.00646216348801386</v>
       </c>
       <c r="E90">
-        <v>0.05948675831890364</v>
+        <v>-0.004237491734339088</v>
       </c>
       <c r="F90">
-        <v>0.04352035096930491</v>
+        <v>0.04093853382952559</v>
       </c>
       <c r="G90">
-        <v>0.0850339490715791</v>
+        <v>0.02207606858870134</v>
       </c>
       <c r="H90">
-        <v>-3.41880848166489e-05</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.05974223962290557</v>
+      </c>
+      <c r="I90">
+        <v>0.02264706400295925</v>
+      </c>
+      <c r="J90">
+        <v>-0.03891983726331568</v>
+      </c>
+      <c r="K90">
+        <v>-0.0308862380711134</v>
+      </c>
+      <c r="L90">
+        <v>0.0215893397542874</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>0.08186003908904305</v>
+        <v>0.07946099871325757</v>
       </c>
       <c r="C91">
-        <v>-0.02914899307346796</v>
+        <v>0.0470515315227021</v>
       </c>
       <c r="D91">
-        <v>0.01424304119838563</v>
+        <v>-0.02992986730932454</v>
       </c>
       <c r="E91">
-        <v>-0.01990929587280785</v>
+        <v>-0.004974677084975695</v>
       </c>
       <c r="F91">
-        <v>-0.07910784803543976</v>
+        <v>-0.02620814062296474</v>
       </c>
       <c r="G91">
-        <v>-0.06472671394680102</v>
+        <v>0.05574145098996953</v>
       </c>
       <c r="H91">
-        <v>-0.006850027989079475</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.06656865202721991</v>
+      </c>
+      <c r="I91">
+        <v>-0.07089417856603676</v>
+      </c>
+      <c r="J91">
+        <v>0.01337003388434826</v>
+      </c>
+      <c r="K91">
+        <v>0.004041659284280452</v>
+      </c>
+      <c r="L91">
+        <v>0.008829192313467913</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>0.1045849783024266</v>
+        <v>0.1621537330121366</v>
       </c>
       <c r="C92">
-        <v>0.3242095103213952</v>
+        <v>-0.3191587664600535</v>
       </c>
       <c r="D92">
-        <v>0.08061634041514905</v>
+        <v>-0.001726660445262817</v>
       </c>
       <c r="E92">
-        <v>0.0522751699988406</v>
+        <v>-0.04601399231780428</v>
       </c>
       <c r="F92">
-        <v>0.002177436421477864</v>
+        <v>0.05024620342617023</v>
       </c>
       <c r="G92">
-        <v>-0.09789250466232664</v>
+        <v>0.01094885006037729</v>
       </c>
       <c r="H92">
-        <v>-0.02057480142738318</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.04017943668511636</v>
+      </c>
+      <c r="I92">
+        <v>-0.0007430116429943096</v>
+      </c>
+      <c r="J92">
+        <v>-0.04376717464203806</v>
+      </c>
+      <c r="K92">
+        <v>0.04197401772099469</v>
+      </c>
+      <c r="L92">
+        <v>0.03249945424234039</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>0.1116769690669344</v>
+        <v>0.1496060661866537</v>
       </c>
       <c r="C93">
-        <v>0.2784521460381468</v>
+        <v>-0.3036296071827933</v>
       </c>
       <c r="D93">
-        <v>0.04855709336308543</v>
+        <v>-0.01742984934136996</v>
       </c>
       <c r="E93">
-        <v>0.03020154017884041</v>
+        <v>0.02160659828958472</v>
       </c>
       <c r="F93">
-        <v>0.0181052426788708</v>
+        <v>0.01630065262154039</v>
       </c>
       <c r="G93">
-        <v>0.005116881171316782</v>
+        <v>0.0158451740169637</v>
       </c>
       <c r="H93">
-        <v>0.01714311129085222</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.05354870672145113</v>
+      </c>
+      <c r="I93">
+        <v>-0.001614631662509929</v>
+      </c>
+      <c r="J93">
+        <v>0.02899455685401213</v>
+      </c>
+      <c r="K93">
+        <v>0.01725660584277104</v>
+      </c>
+      <c r="L93">
+        <v>0.006716912813981922</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>0.09364584000401367</v>
+        <v>0.1178293443326409</v>
       </c>
       <c r="C94">
-        <v>-0.05104241606532984</v>
+        <v>0.06465562944190043</v>
       </c>
       <c r="D94">
-        <v>0.004367502393915357</v>
+        <v>-0.02424458613226996</v>
       </c>
       <c r="E94">
-        <v>-0.03344064171085259</v>
+        <v>-0.01482643605220241</v>
       </c>
       <c r="F94">
-        <v>-0.1393761092632412</v>
+        <v>-0.03982852423425247</v>
       </c>
       <c r="G94">
-        <v>-0.05626942772463097</v>
+        <v>0.08431036852531407</v>
       </c>
       <c r="H94">
-        <v>-0.06699406945717745</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.09420313619901474</v>
+      </c>
+      <c r="I94">
+        <v>-0.09502907901499291</v>
+      </c>
+      <c r="J94">
+        <v>0.003228481087052733</v>
+      </c>
+      <c r="K94">
+        <v>-0.001084574554489652</v>
+      </c>
+      <c r="L94">
+        <v>0.05192334210147512</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>0.1251527149612977</v>
+        <v>0.1191468610809083</v>
       </c>
       <c r="C95">
-        <v>-0.07407784026281058</v>
+        <v>0.06855061214199792</v>
       </c>
       <c r="D95">
-        <v>0.06094548474021016</v>
+        <v>-0.04475618125935069</v>
       </c>
       <c r="E95">
-        <v>0.0511247382192432</v>
+        <v>-0.02914125884648635</v>
       </c>
       <c r="F95">
-        <v>0.06848799596361511</v>
+        <v>0.07208330139677346</v>
       </c>
       <c r="G95">
-        <v>0.06465111470906743</v>
+        <v>-0.1359804854936858</v>
       </c>
       <c r="H95">
-        <v>-0.1037596538840788</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.191347982279599</v>
+      </c>
+      <c r="I95">
+        <v>0.06598963460390392</v>
+      </c>
+      <c r="J95">
+        <v>0.1124340726869838</v>
+      </c>
+      <c r="K95">
+        <v>0.098383405225376</v>
+      </c>
+      <c r="L95">
+        <v>-0.0565086826245866</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.002763882245585467</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.005532502258672189</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.001960863791637287</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.001264909181302771</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.006273192163511653</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.01605959114842349</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.01469645872716098</v>
+      </c>
+      <c r="I96">
+        <v>0.006821076287649368</v>
+      </c>
+      <c r="J96">
+        <v>-0.001635080440765018</v>
+      </c>
+      <c r="K96">
+        <v>-0.01064207922266043</v>
+      </c>
+      <c r="L96">
+        <v>-0.005021666648239167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>0.2160152332094723</v>
+        <v>0.1927283901640494</v>
       </c>
       <c r="C97">
-        <v>0.1333716914721966</v>
+        <v>0.06123102283741462</v>
       </c>
       <c r="D97">
-        <v>-0.9043126121486311</v>
+        <v>0.9325856313582591</v>
       </c>
       <c r="E97">
-        <v>-0.01667707758472611</v>
+        <v>0.1624524305845276</v>
       </c>
       <c r="F97">
-        <v>0.1003572638099539</v>
+        <v>-0.07912917664707549</v>
       </c>
       <c r="G97">
-        <v>-0.007092200595166112</v>
+        <v>-0.02394307074177422</v>
       </c>
       <c r="H97">
-        <v>0.03207258857263939</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.1006624011479713</v>
+      </c>
+      <c r="I97">
+        <v>-0.04140317925895922</v>
+      </c>
+      <c r="J97">
+        <v>0.005931030588777668</v>
+      </c>
+      <c r="K97">
+        <v>-0.009680926417824613</v>
+      </c>
+      <c r="L97">
+        <v>-0.04990895143062672</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>0.3076268328606971</v>
+        <v>0.2540489493804722</v>
       </c>
       <c r="C98">
-        <v>-0.09767431027250328</v>
+        <v>0.09021109130441261</v>
       </c>
       <c r="D98">
-        <v>0.09720985818166723</v>
+        <v>-0.04431893480852855</v>
       </c>
       <c r="E98">
-        <v>-0.1716159432559412</v>
+        <v>-0.01835239118894945</v>
       </c>
       <c r="F98">
-        <v>0.270395014094284</v>
+        <v>-0.3895991094125624</v>
       </c>
       <c r="G98">
-        <v>-0.3425049723412805</v>
+        <v>-0.2058959728319569</v>
       </c>
       <c r="H98">
-        <v>0.343071331974152</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.05770817625094189</v>
+      </c>
+      <c r="I98">
+        <v>0.2182833064368018</v>
+      </c>
+      <c r="J98">
+        <v>-0.06387754467366273</v>
+      </c>
+      <c r="K98">
+        <v>0.4071626145190047</v>
+      </c>
+      <c r="L98">
+        <v>-0.3597510426369979</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0.08012789413937348</v>
+        <v>0.06726803203822224</v>
       </c>
       <c r="C99">
-        <v>-0.04756165666899313</v>
+        <v>0.0410825491941958</v>
       </c>
       <c r="D99">
-        <v>0.02179386190149162</v>
+        <v>-0.02802873871950693</v>
       </c>
       <c r="E99">
-        <v>0.009556586174773986</v>
+        <v>-0.01420646834805398</v>
       </c>
       <c r="F99">
-        <v>-0.03077062500882063</v>
+        <v>-0.01012209128631801</v>
       </c>
       <c r="G99">
-        <v>0.03230403496935557</v>
+        <v>0.01206594304473722</v>
       </c>
       <c r="H99">
-        <v>-0.006682820853262485</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.02967398390721378</v>
+      </c>
+      <c r="I99">
+        <v>-0.005535981129373591</v>
+      </c>
+      <c r="J99">
+        <v>-0.0463889566183437</v>
+      </c>
+      <c r="K99">
+        <v>-0.01590912775292332</v>
+      </c>
+      <c r="L99">
+        <v>0.000465899310646499</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.0003822711075056607</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.008545707237995187</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.06520344316137386</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.01663677051820451</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.03106488648062523</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.01710439125387936</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.007944863987197844</v>
+      </c>
+      <c r="I100">
+        <v>0.05132713314027205</v>
+      </c>
+      <c r="J100">
+        <v>0.003954740765164758</v>
+      </c>
+      <c r="K100">
+        <v>0.06656846310615892</v>
+      </c>
+      <c r="L100">
+        <v>-0.01761019802125809</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>0.05294789031618525</v>
+        <v>0.03827373847775151</v>
       </c>
       <c r="C101">
-        <v>-0.004056155415362097</v>
+        <v>0.02281219323831718</v>
       </c>
       <c r="D101">
-        <v>0.006268193586902639</v>
+        <v>-0.02008801185963819</v>
       </c>
       <c r="E101">
-        <v>0.03653801611392433</v>
+        <v>0.002687109498530104</v>
       </c>
       <c r="F101">
-        <v>-0.026883221925572</v>
+        <v>0.06054152730577559</v>
       </c>
       <c r="G101">
-        <v>0.003744585805972239</v>
+        <v>0.02805944630314204</v>
       </c>
       <c r="H101">
-        <v>-0.02737120328042281</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.01440658686199226</v>
+      </c>
+      <c r="I101">
+        <v>0.01132350229037768</v>
+      </c>
+      <c r="J101">
+        <v>0.02587449834362859</v>
+      </c>
+      <c r="K101">
+        <v>0.1023858278473692</v>
+      </c>
+      <c r="L101">
+        <v>0.01144989254968372</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4579,22 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4617,22 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4653,18 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
